--- a/data/outputs/management/62.xlsx
+++ b/data/outputs/management/62.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ29"/>
+  <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -909,6 +914,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,6 +1116,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1303,6 +1310,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1508,6 +1516,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1705,6 +1714,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1910,6 +1920,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2115,6 +2126,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2324,6 +2336,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2533,6 +2546,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2730,6 +2744,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2935,6 +2950,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3136,6 +3152,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3341,6 +3358,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3538,6 +3556,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3739,6 +3758,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3936,6 +3956,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4141,6 +4162,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4350,6 +4372,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4432,7 +4455,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>NG, Jeffrey Tee Yong/0000-0003-1430-3646; </t>
+          <t>NG, Jeffrey Tee Yong/0000-0003-1430-3646;</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4563,6 +4586,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4760,6 +4784,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>40521842</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4969,6 +4998,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5158,6 +5188,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5367,6 +5398,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5580,6 +5612,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5785,6 +5818,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5998,6 +6032,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6199,6 +6234,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6400,6 +6436,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
